--- a/meng-spad-quenching/active-quenching/aqc-rev3/aqc-rev3-bom.xlsx
+++ b/meng-spad-quenching/active-quenching/aqc-rev3/aqc-rev3-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Admin/Documents/github/dkramnik/Eagle-Public/meng-spad-quenching/active-quenching/aqc-rev3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{518D4030-BE27-B84C-BEAD-CEBAD6ED89C0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F5790318-B0C3-234C-B94B-3DF5D9E02C13}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{7AA28574-0EBC-B64F-B5E8-BA2DC8F1A987}"/>
+    <workbookView xWindow="28000" yWindow="460" windowWidth="28800" windowHeight="16760" xr2:uid="{7AA28574-0EBC-B64F-B5E8-BA2DC8F1A987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2164,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753A3423-729D-D843-AC8C-B806EA9B6521}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
